--- a/Hardware/ALL-BOM.xlsx
+++ b/Hardware/ALL-BOM.xlsx
@@ -9,20 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="753" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Power Outlet-BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="Beaglebone Cape" sheetId="4" r:id="rId2"/>
-    <sheet name="Mouser Order" sheetId="3" r:id="rId3"/>
-    <sheet name="Heating Controller BOM" sheetId="2" r:id="rId4"/>
+    <sheet name="Beaglebone Cape Rev A." sheetId="4" r:id="rId2"/>
+    <sheet name="nrf24L01" sheetId="5" r:id="rId3"/>
+    <sheet name="PoE" sheetId="6" r:id="rId4"/>
+    <sheet name="Energry Sensor" sheetId="7" r:id="rId5"/>
+    <sheet name="Environment Sensor" sheetId="8" r:id="rId6"/>
+    <sheet name="Lighting Controller" sheetId="9" r:id="rId7"/>
+    <sheet name="Heating Controller BOM" sheetId="2" r:id="rId8"/>
+    <sheet name="Mouser Order" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="174">
   <si>
     <t>Qty</t>
   </si>
@@ -466,13 +471,91 @@
   </si>
   <si>
     <t>42M2667</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Power Outlet</t>
+  </si>
+  <si>
+    <t>nrf24l01(3)</t>
+  </si>
+  <si>
+    <t>71-CRCW1206-0-E3</t>
+  </si>
+  <si>
+    <t>0 Ohm 1206 resistor</t>
+  </si>
+  <si>
+    <t>EnergySensor</t>
+  </si>
+  <si>
+    <t>Mains MOV</t>
+  </si>
+  <si>
+    <t>Heating Controller</t>
+  </si>
+  <si>
+    <t>634-SI7006-A20-IM</t>
+  </si>
+  <si>
+    <t>Humidity &amp; Temp Sensor</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>Lightswitch</t>
+  </si>
+  <si>
+    <t>Env Sensor(2)</t>
+  </si>
+  <si>
+    <t>Ambient Light Sensor</t>
+  </si>
+  <si>
+    <t>630-APDS-9007-020</t>
+  </si>
+  <si>
+    <t>Atmega328p-AU</t>
+  </si>
+  <si>
+    <t>556-ATMEGA328P-AU</t>
+  </si>
+  <si>
+    <t>OptoIsolator</t>
+  </si>
+  <si>
+    <t>22p cap</t>
+  </si>
+  <si>
+    <t>80-C1206C130J5G</t>
+  </si>
+  <si>
+    <t>14 p cap</t>
+  </si>
+  <si>
+    <t>0.1u 275</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>0.1u cap</t>
+  </si>
+  <si>
+    <t>70-ILSB1206ER100K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +689,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -960,7 +1049,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -970,6 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1312,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,11 +1989,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2133,103 +2226,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2278,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2249,4 +2302,336 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>SUM(D2:J2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>SUM(D3:J3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>SUM(D4:J4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>SUM(D5:J5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f>SUM(D6:J6)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>SUM(D7:J7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f>SUM(D8:J8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>SUM(D9:J9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f>SUM(D10:J10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <f>SUM(D11:J11)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <f>SUM(D12:J12)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f>SUM(D13:J13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f>SUM(D14:J14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f>SUM(D15:J15)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <f>SUM(D16:J16)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Hardware/ALL-BOM.xlsx
+++ b/Hardware/ALL-BOM.xlsx
@@ -9,25 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="753" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="753" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Power Outlet-BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="Beaglebone Cape Rev A." sheetId="4" r:id="rId2"/>
+    <sheet name="Beaglebone Cape" sheetId="4" r:id="rId2"/>
     <sheet name="nrf24L01" sheetId="5" r:id="rId3"/>
-    <sheet name="PoE" sheetId="6" r:id="rId4"/>
-    <sheet name="Energry Sensor" sheetId="7" r:id="rId5"/>
-    <sheet name="Environment Sensor" sheetId="8" r:id="rId6"/>
-    <sheet name="Lighting Controller" sheetId="9" r:id="rId7"/>
-    <sheet name="Heating Controller BOM" sheetId="2" r:id="rId8"/>
-    <sheet name="Mouser Order" sheetId="3" r:id="rId9"/>
+    <sheet name="Heating Controller" sheetId="2" r:id="rId4"/>
+    <sheet name="Energy Sensor" sheetId="7" r:id="rId5"/>
+    <sheet name="LightSwitch" sheetId="9" r:id="rId6"/>
+    <sheet name="Environment Sensor" sheetId="8" r:id="rId7"/>
+    <sheet name="Totals" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="266">
   <si>
     <t>Qty</t>
   </si>
@@ -47,18 +46,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>MPN</t>
-  </si>
-  <si>
-    <t>OC_FARNELL</t>
-  </si>
-  <si>
-    <t>OC_NEWARK</t>
-  </si>
-  <si>
     <t>L-EUL3225P</t>
   </si>
   <si>
@@ -131,9 +118,6 @@
     <t>C5</t>
   </si>
   <si>
-    <t>1n/2Kv</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -197,9 +181,6 @@
     <t>WAGO SCREW CLAMP</t>
   </si>
   <si>
-    <t>237-103</t>
-  </si>
-  <si>
     <t>G5LE</t>
   </si>
   <si>
@@ -221,24 +202,9 @@
     <t>OPTO COUPLER</t>
   </si>
   <si>
-    <t>MOUNT-HOLE2.8</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>H1, H2, H3, H4</t>
-  </si>
-  <si>
-    <t>MOUNTING HOLE with drill center marker</t>
-  </si>
-  <si>
     <t>LED5MM</t>
   </si>
   <si>
-    <t>LED2</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -251,12 +217,6 @@
     <t>OMRON SWITCH</t>
   </si>
   <si>
-    <t>OMRON COMPONENTS USA</t>
-  </si>
-  <si>
-    <t>B3F-4000</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
@@ -284,9 +244,6 @@
     <t>W237-102</t>
   </si>
   <si>
-    <t>237-102</t>
-  </si>
-  <si>
     <t>VTX-214-001-103</t>
   </si>
   <si>
@@ -296,9 +253,6 @@
     <t>U$1</t>
   </si>
   <si>
-    <t>Rapid</t>
-  </si>
-  <si>
     <t>84-2685</t>
   </si>
   <si>
@@ -320,12 +274,6 @@
     <t>82-5036</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>73-4283</t>
-  </si>
-  <si>
     <t>X1, X2, X3</t>
   </si>
   <si>
@@ -356,15 +304,9 @@
     <t>77-VJ1206A220KXACBC</t>
   </si>
   <si>
-    <t>581-1206GC102K</t>
-  </si>
-  <si>
     <t>81-LQH32PN220MN0L</t>
   </si>
   <si>
-    <t>Mouser</t>
-  </si>
-  <si>
     <t>47u</t>
   </si>
   <si>
@@ -380,9 +322,6 @@
     <t>774-ATS080B</t>
   </si>
   <si>
-    <t>Part</t>
-  </si>
-  <si>
     <t>3k3</t>
   </si>
   <si>
@@ -392,21 +331,12 @@
     <t>R5, R6, R7, R8</t>
   </si>
   <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>110R</t>
-  </si>
-  <si>
     <t>R-EU_0207/7</t>
   </si>
   <si>
     <t>0207/7</t>
   </si>
   <si>
-    <t>R1, R2, R3</t>
-  </si>
-  <si>
     <t>1u</t>
   </si>
   <si>
@@ -416,12 +346,6 @@
     <t>C025-025X050</t>
   </si>
   <si>
-    <t>8.2p</t>
-  </si>
-  <si>
-    <t>Assoc</t>
-  </si>
-  <si>
     <t>HEADER1</t>
   </si>
   <si>
@@ -431,18 +355,9 @@
     <t>2X23</t>
   </si>
   <si>
-    <t>P8</t>
-  </si>
-  <si>
     <t>PIN HEADER</t>
   </si>
   <si>
-    <t>HEADER2</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
     <t>NRF1</t>
   </si>
   <si>
@@ -455,106 +370,469 @@
     <t>NRF24L01</t>
   </si>
   <si>
-    <t>ON_SLEEP</t>
-  </si>
-  <si>
-    <t>XBEE-PRO</t>
-  </si>
-  <si>
-    <t>XB1</t>
-  </si>
-  <si>
-    <t>XBee (TM) /XBee-PRO(TM) OEM RF Modules</t>
-  </si>
-  <si>
-    <t>XBP24-AWI-001</t>
-  </si>
-  <si>
-    <t>42M2667</t>
-  </si>
-  <si>
-    <t>En</t>
-  </si>
-  <si>
     <t>Power Outlet</t>
   </si>
   <si>
-    <t>nrf24l01(3)</t>
-  </si>
-  <si>
     <t>71-CRCW1206-0-E3</t>
   </si>
   <si>
-    <t>0 Ohm 1206 resistor</t>
-  </si>
-  <si>
-    <t>EnergySensor</t>
-  </si>
-  <si>
-    <t>Mains MOV</t>
-  </si>
-  <si>
     <t>Heating Controller</t>
   </si>
   <si>
     <t>634-SI7006-A20-IM</t>
   </si>
   <si>
-    <t>Humidity &amp; Temp Sensor</t>
-  </si>
-  <si>
-    <t>Relay</t>
-  </si>
-  <si>
     <t>Lightswitch</t>
   </si>
   <si>
-    <t>Env Sensor(2)</t>
-  </si>
-  <si>
-    <t>Ambient Light Sensor</t>
-  </si>
-  <si>
-    <t>630-APDS-9007-020</t>
-  </si>
-  <si>
-    <t>Atmega328p-AU</t>
-  </si>
-  <si>
     <t>556-ATMEGA328P-AU</t>
   </si>
   <si>
-    <t>OptoIsolator</t>
-  </si>
-  <si>
-    <t>22p cap</t>
-  </si>
-  <si>
-    <t>80-C1206C130J5G</t>
-  </si>
-  <si>
-    <t>14 p cap</t>
-  </si>
-  <si>
-    <t>0.1u 275</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>0.1u cap</t>
-  </si>
-  <si>
     <t>70-ILSB1206ER100K</t>
+  </si>
+  <si>
+    <t>P8, P9</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>SV2</t>
+  </si>
+  <si>
+    <t>MA09-1W</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t>SO8</t>
+  </si>
+  <si>
+    <t>BR25S640FJ-WE2</t>
+  </si>
+  <si>
+    <t>TSM-110-XX-XXX-DV</t>
+  </si>
+  <si>
+    <t>2X4SMDHEADER</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>R1206</t>
+  </si>
+  <si>
+    <t>R-EU_R1206</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R3, R4, R6</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>WAGO SREW CLAMP</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>W237-132</t>
+  </si>
+  <si>
+    <t>W237-02P</t>
+  </si>
+  <si>
+    <t>MAINS IN</t>
+  </si>
+  <si>
+    <t>DIL4-SMD</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>HEAT</t>
+  </si>
+  <si>
+    <t>E2,5-7</t>
+  </si>
+  <si>
+    <t>CPOL-EUE2.5-7</t>
+  </si>
+  <si>
+    <t>FUSE HOLDER grid 22,5mm, isolated cap OGN0031 8201, Schurter (Buerklin)</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>16MHz</t>
+  </si>
+  <si>
+    <t>CAPACITOR</t>
+  </si>
+  <si>
+    <t>C15B5</t>
+  </si>
+  <si>
+    <t>C15/5</t>
+  </si>
+  <si>
+    <t>L1, L2, L3</t>
+  </si>
+  <si>
+    <t>L3230M</t>
+  </si>
+  <si>
+    <t>L-EUL3230M</t>
+  </si>
+  <si>
+    <t>TRANSFORMER</t>
+  </si>
+  <si>
+    <t>TR1</t>
+  </si>
+  <si>
+    <t>VV11</t>
+  </si>
+  <si>
+    <t>vn20.10 09477</t>
+  </si>
+  <si>
+    <t>VOLTAGE REGULATOR</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>317TL</t>
+  </si>
+  <si>
+    <t>LM317TL</t>
+  </si>
+  <si>
+    <t>ld33v</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>ATMega328p-pu</t>
+  </si>
+  <si>
+    <t>E3,5-10</t>
+  </si>
+  <si>
+    <t>CPOL-EUE3.5-10</t>
+  </si>
+  <si>
+    <t>R2, R6, R7, R11</t>
+  </si>
+  <si>
+    <t>470k</t>
+  </si>
+  <si>
+    <t>R9, R10</t>
+  </si>
+  <si>
+    <t>3.5MMJACK</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>230V 100mA</t>
+  </si>
+  <si>
+    <t>C8, C9</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>22R</t>
+  </si>
+  <si>
+    <t>C3, C12</t>
+  </si>
+  <si>
+    <t>R5, R13</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>DIODE</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>DO35-7</t>
+  </si>
+  <si>
+    <t>1N4148DO35-7</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>120K</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>C1, C10</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>U$2</t>
+  </si>
+  <si>
+    <t>SWITCH</t>
+  </si>
+  <si>
+    <t>P592</t>
+  </si>
+  <si>
+    <t>MAINS</t>
+  </si>
+  <si>
+    <t>BEAD</t>
+  </si>
+  <si>
+    <t>ATMEGA328P</t>
+  </si>
+  <si>
+    <t>HC49U70</t>
+  </si>
+  <si>
+    <t>CRYSTALHC49U70</t>
+  </si>
+  <si>
+    <t>70mA</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C6, C7</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>C-EUC1206</t>
+  </si>
+  <si>
+    <t>0.1u 275V</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>U$3</t>
+  </si>
+  <si>
+    <t>3X3DFN</t>
+  </si>
+  <si>
+    <t>SI7006A20</t>
+  </si>
+  <si>
+    <t>APDS-9007</t>
+  </si>
+  <si>
+    <t>NPDS-9007-020</t>
+  </si>
+  <si>
+    <t>TQFP32-08</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-AU</t>
+  </si>
+  <si>
+    <t>HC49UP</t>
+  </si>
+  <si>
+    <t>CRYSTALHC49UP</t>
+  </si>
+  <si>
+    <t>27k</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>L3216C</t>
+  </si>
+  <si>
+    <t>L-EUL3216C</t>
+  </si>
+  <si>
+    <t>R2, R4, R5</t>
+  </si>
+  <si>
+    <t>Cost (Ea)</t>
+  </si>
+  <si>
+    <t>71-CRCW1206J-10K-E3</t>
+  </si>
+  <si>
+    <t>120R</t>
+  </si>
+  <si>
+    <t>71-CRCW1206120RJNEB</t>
+  </si>
+  <si>
+    <t>71-CRCW12063K30JNEB</t>
+  </si>
+  <si>
+    <t>556-ATMEGA328P-PU</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>51-6386</t>
+  </si>
+  <si>
+    <t>APDS-9007-020</t>
+  </si>
+  <si>
+    <t>62-1819</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>72-3077</t>
+  </si>
+  <si>
+    <t>22-0515</t>
+  </si>
+  <si>
+    <t>20-0137</t>
+  </si>
+  <si>
+    <t>LINK, ACTIVITY</t>
+  </si>
+  <si>
+    <t>54-5042</t>
+  </si>
+  <si>
+    <t>OrderNo (Rapid/Mouser)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>47-3309</t>
+  </si>
+  <si>
+    <t>71-0513</t>
+  </si>
+  <si>
+    <t>88-3574</t>
+  </si>
+  <si>
+    <t>82-3066</t>
+  </si>
+  <si>
+    <t>62-0437</t>
+  </si>
+  <si>
+    <t>72-2225</t>
+  </si>
+  <si>
+    <t>62-0420</t>
+  </si>
+  <si>
+    <t>62-0370</t>
+  </si>
+  <si>
+    <t>62-0394</t>
+  </si>
+  <si>
+    <t>62-0382</t>
+  </si>
+  <si>
+    <t>08-0046</t>
+  </si>
+  <si>
+    <t>08-0200</t>
+  </si>
+  <si>
+    <t>Cape</t>
+  </si>
+  <si>
+    <t>Nrf</t>
+  </si>
+  <si>
+    <t>Energy Sensor</t>
+  </si>
+  <si>
+    <t>Environment Sensor</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Main Costs</t>
+  </si>
+  <si>
+    <t>Additional Costs</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Device Costs</t>
+  </si>
+  <si>
+    <t>NrfRadios</t>
+  </si>
+  <si>
+    <t>BeagleBoneBlack</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
+  </si>
+  <si>
+    <t>Total Available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -691,10 +969,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -995,9 +1273,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1005,7 +1281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1048,20 +1324,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1089,6 +1365,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1105,7 +1382,132 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1119,19 +1521,189 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J24" totalsRowShown="0">
-  <autoFilter ref="A1:J24"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I23" totalsRowCount="1">
+  <autoFilter ref="A1:I22"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Qty"/>
     <tableColumn id="2" name="Value"/>
     <tableColumn id="3" name="Device"/>
     <tableColumn id="4" name="Package"/>
     <tableColumn id="5" name="Parts"/>
     <tableColumn id="6" name="Description"/>
-    <tableColumn id="7" name="MF"/>
-    <tableColumn id="8" name="MPN"/>
-    <tableColumn id="9" name="Rapid"/>
-    <tableColumn id="10" name="Mouser"/>
+    <tableColumn id="10" name="OrderNo (Rapid/Mouser)"/>
+    <tableColumn id="7" name="Cost (Ea)" totalsRowLabel="Total"/>
+    <tableColumn id="8" name="Cost" totalsRowFunction="custom" totalsRowDxfId="6" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(I2:I22)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A20:B24" totalsRowCount="1">
+  <autoFilter ref="A20:B24"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Item" totalsRowLabel="Total Available"/>
+    <tableColumn id="2" name="Cost" totalsRowFunction="custom" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(B21:B23)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I5" totalsRowCount="1">
+  <autoFilter ref="A1:I4"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Qty"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Device"/>
+    <tableColumn id="4" name="Package"/>
+    <tableColumn id="5" name="Parts"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="8" name="OrderNo (Rapid/Mouser)"/>
+    <tableColumn id="9" name="Cost (Ea)" totalsRowLabel="Total"/>
+    <tableColumn id="10" name="Cost" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table2[[#This Row],[Cost (Ea)]]*Table2[[#This Row],[Qty]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(I2:I4)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:I8" totalsRowCount="1">
+  <autoFilter ref="A1:I8"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Qty"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Device"/>
+    <tableColumn id="4" name="Package"/>
+    <tableColumn id="5" name="Parts"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="8" name="OrderNo (Rapid/Mouser)"/>
+    <tableColumn id="9" name="Cost (Ea)" totalsRowLabel="Total"/>
+    <tableColumn id="10" name="Cost" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table7[[#This Row],[Cost (Ea)]]*Table7[[#This Row],[Qty]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(I2:I7)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:I22" totalsRowCount="1">
+  <autoFilter ref="A1:I21"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Qty"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Device"/>
+    <tableColumn id="4" name="Package"/>
+    <tableColumn id="5" name="Parts"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="OrderNo (Rapid/Mouser)"/>
+    <tableColumn id="8" name="Cost (Ea)" totalsRowLabel="Total"/>
+    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="5" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(I2:I21)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I27" totalsRowCount="1">
+  <autoFilter ref="A1:I26"/>
+  <sortState ref="A2:I28">
+    <sortCondition ref="E1:E28"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Qty"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Device"/>
+    <tableColumn id="4" name="Package"/>
+    <tableColumn id="5" name="Parts"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="OrderNo (Rapid/Mouser)"/>
+    <tableColumn id="8" name="Cost (Ea)" totalsRowLabel="Total"/>
+    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(I2:I26)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:I19" totalsRowCount="1">
+  <autoFilter ref="A1:I19"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Qty"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Device"/>
+    <tableColumn id="4" name="Package"/>
+    <tableColumn id="5" name="Parts"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="OrderNo (Rapid/Mouser)"/>
+    <tableColumn id="8" name="Cost (Ea)" totalsRowLabel="Total"/>
+    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="3" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(I2:I18)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I14" totalsRowCount="1">
+  <autoFilter ref="A1:I14"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Qty"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Device"/>
+    <tableColumn id="4" name="Package"/>
+    <tableColumn id="5" name="Parts"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="OrderNo (Rapid/Mouser)"/>
+    <tableColumn id="8" name="Cost (Ea)" totalsRowLabel="Total"/>
+    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="4" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(I2:I13)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:B10" totalsRowCount="1">
+  <autoFilter ref="A2:B10"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Device" totalsRowLabel="Total Cost"/>
+    <tableColumn id="2" name="Cost" totalsRowFunction="custom" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(B3:B9)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A13:B16" totalsRowCount="1">
+  <autoFilter ref="A13:B16"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Item" totalsRowLabel="Total Cost"/>
+    <tableColumn id="2" name="Cost" totalsRowFunction="custom" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(B14:B15)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1400,26 +1972,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1439,370 +2010,466 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6">
+        <v>0.04</v>
+      </c>
+      <c r="I6" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7">
+        <v>0.26</v>
+      </c>
+      <c r="I7" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8">
+        <v>0.03</v>
+      </c>
+      <c r="I8" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9">
+        <v>0.04</v>
+      </c>
+      <c r="I9" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10">
+        <v>0.11</v>
+      </c>
+      <c r="I10" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="G11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12">
+        <v>2.61</v>
+      </c>
+      <c r="I12" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>0.4</v>
+      </c>
+      <c r="I13" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15">
+        <v>0.76</v>
+      </c>
+      <c r="I15" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16">
+        <v>0.13</v>
+      </c>
+      <c r="I16" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
       <c r="C17" t="s">
         <v>60</v>
       </c>
@@ -1810,171 +2477,170 @@
         <v>61</v>
       </c>
       <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>0.35</v>
+      </c>
+      <c r="I17" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18">
+        <v>0.06</v>
+      </c>
+      <c r="I18" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
       </c>
-      <c r="I20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20">
+        <v>0.31</v>
+      </c>
+      <c r="I20" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21">
+        <v>0.12</v>
+      </c>
+      <c r="I21" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <v>3.55</v>
+      </c>
+      <c r="I22" s="3">
+        <f>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</f>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" t="s">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="I23" s="4">
+        <f>SUM(I2:I22)</f>
+        <v>11.540000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1987,18 +2653,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2018,620 +2686,2984 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2">
+        <v>0.03</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Table2[[#This Row],[Cost (Ea)]]*Table2[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3">
+        <v>0.46</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Table2[[#This Row],[Cost (Ea)]]*Table2[[#This Row],[Qty]]</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10">
-        <v>1337916</v>
-      </c>
-      <c r="J10" t="s">
-        <v>147</v>
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="3">
+        <f>Table2[[#This Row],[Cost (Ea)]]*Table2[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUM(I2:I4)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2">
+        <v>0.03</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Table7[[#This Row],[Cost (Ea)]]*Table7[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Table7[[#This Row],[Cost (Ea)]]*Table7[[#This Row],[Qty]]</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="3">
+        <f>Table7[[#This Row],[Cost (Ea)]]*Table7[[#This Row],[Qty]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="3">
+        <f>Table7[[#This Row],[Cost (Ea)]]*Table7[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6">
+        <v>0.73</v>
+      </c>
+      <c r="I6" s="3">
+        <f>Table7[[#This Row],[Cost (Ea)]]*Table7[[#This Row],[Qty]]</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7">
+        <v>0.08</v>
+      </c>
+      <c r="I7" s="3">
+        <f>Table7[[#This Row],[Cost (Ea)]]*Table7[[#This Row],[Qty]]</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM(I2:I7)</f>
+        <v>1.1400000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.86999999999999988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I4" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="I6" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <v>0.03</v>
+      </c>
+      <c r="I7" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8">
+        <v>0.04</v>
+      </c>
+      <c r="I8" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>0.11</v>
+      </c>
+      <c r="I9" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11">
+        <v>0.04</v>
+      </c>
+      <c r="I11" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12">
+        <v>2.61</v>
+      </c>
+      <c r="I12" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>0.4</v>
+      </c>
+      <c r="I13" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14">
+        <v>0.76</v>
+      </c>
+      <c r="I14" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15">
+        <v>0.06</v>
+      </c>
+      <c r="I15" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>0.35</v>
+      </c>
+      <c r="I16" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17">
+        <v>0.13</v>
+      </c>
+      <c r="I17" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>0.12</v>
+      </c>
+      <c r="I18" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20">
+        <v>0.31</v>
+      </c>
+      <c r="I20" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>3.55</v>
+      </c>
+      <c r="I21" s="3">
+        <f>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</f>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="4">
+        <f>SUM(I2:I21)</f>
+        <v>12.040000000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>0.04</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <v>0.03</v>
+      </c>
+      <c r="I5" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6">
+        <v>0.03</v>
+      </c>
+      <c r="I6" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>0.11</v>
+      </c>
+      <c r="I9" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10">
+        <v>2.61</v>
+      </c>
+      <c r="I10" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11">
+        <v>0.71</v>
+      </c>
+      <c r="I11" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13">
+        <v>0.06</v>
+      </c>
+      <c r="I13" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="I14" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I16" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I17" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I18" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I20" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I21" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>249</v>
+      </c>
+      <c r="H22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I22" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23">
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I24" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25">
+        <v>0.13</v>
+      </c>
+      <c r="I25" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26">
+        <v>0.12</v>
+      </c>
+      <c r="I26" s="3">
+        <f>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="4">
+        <f>SUM(I2:I26)</f>
+        <v>9.2067999999999977</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2">
+        <v>0.03</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <v>0.03</v>
+      </c>
+      <c r="I5" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6">
+        <v>0.04</v>
+      </c>
+      <c r="I6" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9">
+        <v>0.04</v>
+      </c>
+      <c r="I9" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10">
+        <v>0.11</v>
+      </c>
+      <c r="I10" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="I11" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12">
+        <v>2.61</v>
+      </c>
+      <c r="I12" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I13" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14">
+        <v>0.12</v>
+      </c>
+      <c r="I14" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16">
+        <v>0.06</v>
+      </c>
+      <c r="I16" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>0.35</v>
+      </c>
+      <c r="I17" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18">
+        <v>3.55</v>
+      </c>
+      <c r="I18" s="3">
+        <f>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</f>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="4">
+        <f>SUM(I2:I18)</f>
+        <v>8.0299999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2">
+        <v>0.03</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <v>0.03</v>
+      </c>
+      <c r="I5" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7">
+        <v>0.04</v>
+      </c>
+      <c r="I7" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="I10" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I11" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12">
+        <v>0.69</v>
+      </c>
+      <c r="I12" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13">
+        <v>2.7</v>
+      </c>
+      <c r="I13" s="3">
+        <f>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM(I2:I13)</f>
+        <v>6.633</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <f>SUM(D2:J2)</f>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <f>SUM(D3:J3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <f>SUM(D4:J4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>116</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <f>SUM(D5:J5)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <f>SUM(D6:J6)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <f>SUM(D7:J7)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <f>SUM(D8:J8)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f>SUM(D9:J9)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <f>SUM(D10:J10)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <f>SUM(D11:J11)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="B10" s="3">
+        <f>SUM(B3:B9)</f>
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="K12">
-        <f>SUM(D12:J12)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <f>SUM(D13:J13)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <f>SUM(D14:J14)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <f>SUM(D15:J15)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="B15" s="3">
+        <v>40.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16">
-        <f>SUM(D16:J16)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
+        <v>256</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM(B14:B15)</f>
+        <v>50.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="3">
+        <f>-(Table8[[#Totals],[Cost]])</f>
+        <v>-49.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="3">
+        <f>-(Table10[[#Totals],[Cost]])</f>
+        <v>-50.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" s="3">
+        <f>SUM(B21:B23)</f>
+        <v>39.869999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Hardware/ALL-BOM.xlsx
+++ b/Hardware/ALL-BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="753" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="753" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Power Outlet-BOM" sheetId="1" r:id="rId1"/>
@@ -820,10 +820,10 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Total Costs</t>
-  </si>
-  <si>
     <t>Total Available</t>
+  </si>
+  <si>
+    <t>Balance</t>
   </si>
 </sst>
 </file>
@@ -1382,42 +1382,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1507,6 +1472,58 @@
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1532,7 +1549,7 @@
     <tableColumn id="6" name="Description"/>
     <tableColumn id="10" name="OrderNo (Rapid/Mouser)"/>
     <tableColumn id="7" name="Cost (Ea)" totalsRowLabel="Total"/>
-    <tableColumn id="8" name="Cost" totalsRowFunction="custom" totalsRowDxfId="6" dataCellStyle="Currency">
+    <tableColumn id="8" name="Cost" totalsRowFunction="custom" totalsRowDxfId="7" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Cost (Ea)]]*Table1[[#This Row],[Qty]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(I2:I22)</totalsRowFormula>
     </tableColumn>
@@ -1542,12 +1559,12 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A20:B24" totalsRowCount="1">
-  <autoFilter ref="A20:B24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="G2:H6" totalsRowCount="1">
+  <autoFilter ref="G2:H5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Item" totalsRowLabel="Total Available"/>
-    <tableColumn id="2" name="Cost" totalsRowFunction="custom" dataCellStyle="Currency">
-      <totalsRowFormula>SUM(B21:B23)</totalsRowFormula>
+    <tableColumn id="2" name="Cost" totalsRowFunction="custom" totalsRowDxfId="0" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(H3:H5)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1566,7 +1583,7 @@
     <tableColumn id="6" name="Description"/>
     <tableColumn id="8" name="OrderNo (Rapid/Mouser)"/>
     <tableColumn id="9" name="Cost (Ea)" totalsRowLabel="Total"/>
-    <tableColumn id="10" name="Cost" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="10" name="Cost" totalsRowFunction="custom" totalsRowDxfId="6" dataCellStyle="Currency">
       <calculatedColumnFormula>Table2[[#This Row],[Cost (Ea)]]*Table2[[#This Row],[Qty]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(I2:I4)</totalsRowFormula>
     </tableColumn>
@@ -1577,7 +1594,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:I8" totalsRowCount="1">
-  <autoFilter ref="A1:I8"/>
+  <autoFilter ref="A1:I7"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Qty"/>
     <tableColumn id="2" name="Value"/>
@@ -1587,7 +1604,7 @@
     <tableColumn id="6" name="Description"/>
     <tableColumn id="8" name="OrderNo (Rapid/Mouser)"/>
     <tableColumn id="9" name="Cost (Ea)" totalsRowLabel="Total"/>
-    <tableColumn id="10" name="Cost" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="Currency">
+    <tableColumn id="10" name="Cost" totalsRowFunction="custom" totalsRowDxfId="5" dataCellStyle="Currency">
       <calculatedColumnFormula>Table7[[#This Row],[Cost (Ea)]]*Table7[[#This Row],[Qty]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(I2:I7)</totalsRowFormula>
     </tableColumn>
@@ -1608,7 +1625,7 @@
     <tableColumn id="6" name="Description"/>
     <tableColumn id="7" name="OrderNo (Rapid/Mouser)"/>
     <tableColumn id="8" name="Cost (Ea)" totalsRowLabel="Total"/>
-    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="5" dataCellStyle="Currency">
+    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="4" dataCellStyle="Currency">
       <calculatedColumnFormula>Table6[[#This Row],[Cost (Ea)]]*Table6[[#This Row],[Qty]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(I2:I21)</totalsRowFormula>
     </tableColumn>
@@ -1632,7 +1649,7 @@
     <tableColumn id="6" name="Description"/>
     <tableColumn id="7" name="OrderNo (Rapid/Mouser)"/>
     <tableColumn id="8" name="Cost (Ea)" totalsRowLabel="Total"/>
-    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>Table5[[#This Row],[Cost (Ea)]]*Table5[[#This Row],[Qty]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(I2:I26)</totalsRowFormula>
     </tableColumn>
@@ -1643,7 +1660,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:I19" totalsRowCount="1">
-  <autoFilter ref="A1:I19"/>
+  <autoFilter ref="A1:I18"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Qty"/>
     <tableColumn id="2" name="Value"/>
@@ -1653,7 +1670,7 @@
     <tableColumn id="6" name="Description"/>
     <tableColumn id="7" name="OrderNo (Rapid/Mouser)"/>
     <tableColumn id="8" name="Cost (Ea)" totalsRowLabel="Total"/>
-    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="3" dataCellStyle="Currency">
+    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="Currency">
       <calculatedColumnFormula>Table4[[#This Row],[Cost (Ea)]]*Table4[[#This Row],[Qty]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(I2:I18)</totalsRowFormula>
     </tableColumn>
@@ -1664,7 +1681,7 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I14" totalsRowCount="1">
-  <autoFilter ref="A1:I14"/>
+  <autoFilter ref="A1:I13"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Qty"/>
     <tableColumn id="2" name="Value"/>
@@ -1674,7 +1691,7 @@
     <tableColumn id="6" name="Description"/>
     <tableColumn id="7" name="OrderNo (Rapid/Mouser)"/>
     <tableColumn id="8" name="Cost (Ea)" totalsRowLabel="Total"/>
-    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="4" dataCellStyle="Currency">
+    <tableColumn id="9" name="Cost" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Currency">
       <calculatedColumnFormula>Table3[[#This Row],[Cost (Ea)]]*Table3[[#This Row],[Qty]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(I2:I13)</totalsRowFormula>
     </tableColumn>
@@ -1685,7 +1702,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:B10" totalsRowCount="1">
-  <autoFilter ref="A2:B10"/>
+  <autoFilter ref="A2:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Device" totalsRowLabel="Total Cost"/>
     <tableColumn id="2" name="Cost" totalsRowFunction="custom" dataCellStyle="Currency">
@@ -1697,12 +1714,12 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A13:B16" totalsRowCount="1">
-  <autoFilter ref="A13:B16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="D2:E5" totalsRowCount="1">
+  <autoFilter ref="D2:E4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Item" totalsRowLabel="Total Cost"/>
     <tableColumn id="2" name="Cost" totalsRowFunction="custom" dataCellStyle="Currency">
-      <totalsRowFormula>SUM(B14:B15)</totalsRowFormula>
+      <totalsRowFormula>SUM(E3:E4)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1975,7 +1992,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="B1" sqref="B1:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,14 +2673,15 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="I5" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2807,7 +2825,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,7 +3063,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,7 +3714,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I27" sqref="A1:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4505,8 +4523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5072,7 +5090,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5482,64 +5500,132 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="3">
         <v>11.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>252</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="3">
+        <v>40.54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="3">
+        <f>-(Table8[[#Totals],[Cost]])</f>
+        <v>-49.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>253</v>
       </c>
       <c r="B5" s="3">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="3">
+        <f>SUM(E3:E4)</f>
+        <v>50.54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" s="3">
+        <f>-(Table10[[#Totals],[Cost]])</f>
+        <v>-50.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="3">
         <v>12.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="3">
+        <f>SUM(H3:H5)</f>
+        <v>39.869999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>254</v>
       </c>
@@ -5547,7 +5633,7 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -5555,7 +5641,7 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -5563,99 +5649,13 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>256</v>
       </c>
       <c r="B10" s="3">
         <f>SUM(B3:B9)</f>
         <v>49.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15" s="3">
-        <v>40.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="3">
-        <f>SUM(B14:B15)</f>
-        <v>50.54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>263</v>
-      </c>
-      <c r="B20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>259</v>
-      </c>
-      <c r="B21" s="3">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="3">
-        <f>-(Table8[[#Totals],[Cost]])</f>
-        <v>-49.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>258</v>
-      </c>
-      <c r="B23" s="3">
-        <f>-(Table10[[#Totals],[Cost]])</f>
-        <v>-50.54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B24" s="3">
-        <f>SUM(B21:B23)</f>
-        <v>39.869999999999997</v>
       </c>
     </row>
   </sheetData>
